--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C5DF6-6A98-4611-92C2-7BAEB256A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2154B0-3143-46CA-A731-68D931D98D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="0" windowWidth="19890" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="8730" yWindow="0" windowWidth="19890" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,11 +127,11 @@
     <t>Day30</t>
   </si>
   <si>
-    <t>Day1（12/2/2023）</t>
+    <t>Day1（17/2/2023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Day2（13/2/2023）</t>
+    <t>Day2（18/2/2023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +525,7 @@
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2154B0-3143-46CA-A731-68D931D98D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD5625-F787-4A82-B295-DC37A04AD9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="0" windowWidth="19890" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="6630" yWindow="0" windowWidth="21135" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Listening</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,11 +127,16 @@
     <t>Day30</t>
   </si>
   <si>
-    <t>Day1（17/2/2023）</t>
+    <t>Day1（20/2/2023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Day2（18/2/2023）</t>
+    <t>Day2（21/2/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part1: T-shirt/Weekends
+Part23: Describe a person you met at a party who you enjoyed talking with</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +533,7 @@
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,7 +541,7 @@
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
     <col min="2" max="3" width="16.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -551,14 +559,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD5625-F787-4A82-B295-DC37A04AD9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06F64A8-E5CF-4EC8-AC6A-EE65D99CA062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="0" windowWidth="21135" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="2250" yWindow="0" windowWidth="25515" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Listening</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,9 +41,6 @@
   <si>
     <t>Speaking</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
   </si>
   <si>
     <t>Day4</t>
@@ -137,6 +134,62 @@
   <si>
     <t>Part1: T-shirt/Weekends
 Part23: Describe a person you met at a party who you enjoyed talking with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3（22/2/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法精讲精练
+手把手写作
+雅思词伙(Day1-Day5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语料库(3-4)
+反复精听直到正确率 90%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇(1-3)场景词汇，盲点词，同义替换
+雅思阅读真经 5(1-14)
+每篇 passage 不超过 20min 完成，阅读文章，做完马上对答案，错题重读原文分析错误原因
+等。积累课后核心词汇和同义词，整理完整同义词替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语料库(5-11)
+形容词、动词与连读弱读浊化章节，反复精听直到正确率 90%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇(4-6)场景词汇，同义替换
+雅思阅读真经 5(15-28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法精讲精练
+雅思词伙(Day6-Day10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑桥雅思真题 15 听力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法精讲精练
+雅思词伙(Day11-Day15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇(7-9)场景词汇，同义替换
+雅思阅读真经 5(29-42)
+剑桥雅思真题 15 阅读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +268,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,311 +586,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="16.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="2"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06F64A8-E5CF-4EC8-AC6A-EE65D99CA062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF20EF81-AB1A-4819-8700-62178DF76AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="0" windowWidth="25515" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="330" yWindow="0" windowWidth="27255" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Listening</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,21 +41,6 @@
   <si>
     <t>Speaking</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day4</t>
-  </si>
-  <si>
-    <t>Day5</t>
-  </si>
-  <si>
-    <t>Day6</t>
-  </si>
-  <si>
-    <t>Day7</t>
-  </si>
-  <si>
-    <t>Day8</t>
   </si>
   <si>
     <t>Day9</t>
@@ -145,51 +130,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>语料库(3-4)
+反复精听直到正确率 90%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语料库(5-11)
+形容词、动词与连读弱读浊化章节，反复精听直到正确率 90%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法精讲精练
+雅思词伙(Day6-Day10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4（23/2/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5（24/2/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day6（25/2/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day7（26/2/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>语法精讲精练
 手把手写作
-雅思词伙(Day1-Day5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语料库(3-4)
-反复精听直到正确率 90%以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心词汇(1-3)场景词汇，盲点词，同义替换
-雅思阅读真经 5(1-14)
+雅思词伙(Day1-Day5)
+剑雅真题C6-C7范文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇精讲精炼(1-3)场景词汇，盲点词，同义替换
+雅思阅读真经5(1-14)
 每篇 passage 不超过 20min 完成，阅读文章，做完马上对答案，错题重读原文分析错误原因
 等。积累课后核心词汇和同义词，整理完整同义词替换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>语料库(5-11)
-形容词、动词与连读弱读浊化章节，反复精听直到正确率 90%以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核心词汇(4-6)场景词汇，同义替换
-雅思阅读真经 5(15-28)</t>
+雅思阅读真经5(15-28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雅真题C15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇(7-9)场景词汇，同义替换
+雅思阅读真经5(29-42)
+剑雅真题C15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语法精讲精练
-雅思词伙(Day6-Day10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑桥雅思真题 15 听力</t>
+雅思词伙(Day11-Day15)
+剑雅真题C15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心词汇(10-12)场景词汇，同义替换
+雅思阅读真经5(43-56)
+剑雅真题C14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雅真题C14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语法精讲精练
-雅思词伙(Day11-Day15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心词汇(7-9)场景词汇，同义替换
-雅思阅读真经 5(29-42)
-剑桥雅思真题 15 阅读</t>
+雅思词伙(Day16-Day20)
+剑雅真题C14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雅真题C13
+剑雅真题C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法精讲精练
+雅思词伙(Day21-Day25)
+剑雅真题C13
+剑雅真题C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1：2个Topic
+P2-P3：2个Topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雅真题C11
+剑雅真题C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法精讲精练
+雅思词伙(Day26-Day30)
+剑雅真题C11
+剑雅真题C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇(16-18)场景词汇，同义替换
+剑雅真题C11
+剑雅真题C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇(13-15)场景词汇，同义替换
+剑雅真题C13
+剑雅真题C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雅真题C10
+剑雅真题C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇(19-21)场景词汇，同义替换
+剑雅真题C10
+剑雅真题C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法精讲精练
+雅思词伙(Day31-Day34)
+剑雅真题C10
+剑雅真题C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时，录音，回听录音，找出影响考官印象分的嗯，啊等语气词，最好有线上老师进行模考，根据不足改进，体验考场氛围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结作文思路，看话题拓展，总结自己的模板， 积累亮点衔接词，高级词汇，高级句式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雅真题C16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难记难背词汇、同义词替换笔记温习
+对照剑桥雅思精讲精练整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day8（27/2/2023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +688,7 @@
   <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,8 +696,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -617,110 +716,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -729,7 +866,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -738,7 +875,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -747,7 +884,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -756,7 +893,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -765,7 +902,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -774,7 +911,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -783,7 +920,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -792,7 +929,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -801,7 +938,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -810,7 +947,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -819,7 +956,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -828,7 +965,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -837,7 +974,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -846,7 +983,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -855,7 +992,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -864,7 +1001,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -873,7 +1010,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -882,7 +1019,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -891,7 +1028,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -900,7 +1037,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -909,7 +1046,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF20EF81-AB1A-4819-8700-62178DF76AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2525E46E-A092-4647-94A6-9CD6A68B54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="0" windowWidth="27255" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="2145" yWindow="0" windowWidth="24300" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Listening</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,16 +127,6 @@
   </si>
   <si>
     <t>第一周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语料库(3-4)
-反复精听直到正确率 90%以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语料库(5-11)
-形容词、动词与连读弱读浊化章节，反复精听直到正确率 90%以上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,13 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心词汇精讲精炼(1-3)场景词汇，盲点词，同义替换
-雅思阅读真经5(1-14)
-每篇 passage 不超过 20min 完成，阅读文章，做完马上对答案，错题重读原文分析错误原因
-等。积累课后核心词汇和同义词，整理完整同义词替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核心词汇(4-6)场景词汇，同义替换
 雅思阅读真经5(15-28)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +272,72 @@
   </si>
   <si>
     <t>Day8（27/2/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-9:00 剑桥真题T1-T3
+9:00-9:30 真题纠错，生词记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心词汇精讲精炼(1-3)场景词汇，盲点词，同义替换
+雅思阅读真经5(1-14)
+每篇 passage 不超过 20min 完成，阅读文章，做完马上对答案，错题重读原文分析错误原因
+等。积累课后核心词汇和同义词，整理完整同义词替换
+刘雅思词汇真经，雅思阅读考点词库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语料库(3-4)
+反复精听直到正确率 98%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语料库(5-11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+形容词、动词与连读弱读浊化章节，反复精听直到正确率 98%以上</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:00-7:00 听力雅思王语料库
+7:00-7:15 纠错看生词，计算正确率
+7:15-7:45 剑桥真题T1-T4
+7:45-8:00 纠错，整理生词，舌尖上的听力
+1.拼写错误，2.发音不熟，3.漏听，4.生词
+点听（名词和词组）复数听写，精听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00 口语真题
+口语题库，真题题目准备一遍
+1个故事串多个题目
+练习录音，一遍遍练到自己不卡壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-14:30 剑桥真题T1-T2
+Simon老师/杜老师/顾老师写作，作文批改
+学习范文（7+4）
+练习范文（7+4）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +370,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -685,19 +742,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -716,157 +776,162 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -875,7 +940,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -884,7 +949,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -893,7 +958,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -902,7 +967,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -911,7 +976,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -920,7 +985,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -929,7 +994,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -938,7 +1003,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -947,7 +1012,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -956,7 +1021,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -965,7 +1030,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -974,7 +1039,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -983,7 +1048,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -992,7 +1057,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1001,7 +1066,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1010,7 +1075,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1019,7 +1084,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1028,7 +1093,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1037,7 +1102,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1046,19 +1111,28 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" s="2"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2525E46E-A092-4647-94A6-9CD6A68B54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F0BD3-BD19-4392-88A5-9CE8A0269D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="0" windowWidth="24300" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="25455" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,14 +107,6 @@
   </si>
   <si>
     <t>Day30</t>
-  </si>
-  <si>
-    <t>Day1（20/2/2023）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2（21/2/2023）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Part1: T-shirt/Weekends
@@ -338,6 +330,14 @@
 Simon老师/杜老师/顾老师写作，作文批改
 学习范文（7+4）
 练习范文（7+4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1（9/4/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2（10/4/2023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,155 +778,155 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F0BD3-BD19-4392-88A5-9CE8A0269D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34147833-A01E-4DE4-8335-DA99ADE77654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="25455" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="2730" yWindow="0" windowWidth="25455" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
   <si>
     <t>Part1: T-shirt/Weekends
 Part23: Describe a person you met at a party who you enjoyed talking with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3（22/2/2023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,11 +329,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Day1（9/4/2023）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2（10/4/2023）</t>
+    <t>Day1（13/4/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2（14/4/2023）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3（15/4/2023）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +745,10 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,33 +778,33 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
@@ -813,120 +813,120 @@
     <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
